--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tff3</t>
   </si>
   <si>
     <t>Cxcr4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.78975708816259</v>
+        <v>0.2630826666666666</v>
       </c>
       <c r="H2">
-        <v>1.78975708816259</v>
+        <v>0.7892479999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N2">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O2">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P2">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q2">
-        <v>20.02682729513124</v>
+        <v>4.025775765646221</v>
       </c>
       <c r="R2">
-        <v>20.02682729513124</v>
+        <v>36.23198189081599</v>
       </c>
       <c r="S2">
-        <v>0.01119282326682845</v>
+        <v>0.0009075855411883023</v>
       </c>
       <c r="T2">
-        <v>0.01119282326682845</v>
+        <v>0.0009075855411883025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.78975708816259</v>
+        <v>0.2630826666666666</v>
       </c>
       <c r="H3">
-        <v>1.78975708816259</v>
+        <v>0.7892479999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N3">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P3">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q3">
-        <v>0.2833994166286722</v>
+        <v>0.06072605653333334</v>
       </c>
       <c r="R3">
-        <v>0.2833994166286722</v>
+        <v>0.5465345088</v>
       </c>
       <c r="S3">
-        <v>0.0001583895210909504</v>
+        <v>1.369030320897414E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001583895210909504</v>
+        <v>1.369030320897414E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.78975708816259</v>
+        <v>0.2630826666666666</v>
       </c>
       <c r="H4">
-        <v>1.78975708816259</v>
+        <v>0.7892479999999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N4">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O4">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P4">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q4">
-        <v>410.7281282301074</v>
+        <v>65.48641373781332</v>
       </c>
       <c r="R4">
-        <v>410.7281282301074</v>
+        <v>589.37772364032</v>
       </c>
       <c r="S4">
-        <v>0.2295524539282605</v>
+        <v>0.0147634954633828</v>
       </c>
       <c r="T4">
-        <v>0.2295524539282605</v>
+        <v>0.0147634954633828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.78975708816259</v>
+        <v>0.2630826666666666</v>
       </c>
       <c r="H5">
-        <v>1.78975708816259</v>
+        <v>0.7892479999999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N5">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O5">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P5">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q5">
-        <v>485.7538822350974</v>
+        <v>72.72445069932088</v>
       </c>
       <c r="R5">
-        <v>485.7538822350974</v>
+        <v>654.5200562938879</v>
       </c>
       <c r="S5">
-        <v>0.2714837090723318</v>
+        <v>0.01639526486020519</v>
       </c>
       <c r="T5">
-        <v>0.2714837090723318</v>
+        <v>0.0163952648602052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.78975708816259</v>
+        <v>0.2630826666666666</v>
       </c>
       <c r="H6">
-        <v>1.78975708816259</v>
+        <v>0.7892479999999999</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.0620457744499688</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N6">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O6">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P6">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q6">
-        <v>824.9446431831184</v>
+        <v>123.8891882064498</v>
       </c>
       <c r="R6">
-        <v>824.9446431831184</v>
+        <v>1115.002693858048</v>
       </c>
       <c r="S6">
-        <v>0.4610545374958251</v>
+        <v>0.02793002950766215</v>
       </c>
       <c r="T6">
-        <v>0.4610545374958251</v>
+        <v>0.02793002950766216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1549 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2630826666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.7892479999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.0620457744499688</v>
+      </c>
+      <c r="J7">
+        <v>0.0620457744499688</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>34.32301466666667</v>
+      </c>
+      <c r="N7">
+        <v>102.969044</v>
+      </c>
+      <c r="O7">
+        <v>0.03280978910115619</v>
+      </c>
+      <c r="P7">
+        <v>0.0328097891011562</v>
+      </c>
+      <c r="Q7">
+        <v>9.029790226545776</v>
+      </c>
+      <c r="R7">
+        <v>81.26811203891199</v>
+      </c>
+      <c r="S7">
+        <v>0.002035708774321382</v>
+      </c>
+      <c r="T7">
+        <v>0.002035708774321382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.542699666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.628099000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="J8">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>15.30232233333333</v>
+      </c>
+      <c r="N8">
+        <v>45.90696699999999</v>
+      </c>
+      <c r="O8">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="P8">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="Q8">
+        <v>23.60688756285922</v>
+      </c>
+      <c r="R8">
+        <v>212.461988065733</v>
+      </c>
+      <c r="S8">
+        <v>0.005322022653954196</v>
+      </c>
+      <c r="T8">
+        <v>0.005322022653954197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.542699666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.628099000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="J9">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.230825</v>
+      </c>
+      <c r="N9">
+        <v>0.6924750000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="P9">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="Q9">
+        <v>0.3560936505583334</v>
+      </c>
+      <c r="R9">
+        <v>3.204842855025001</v>
+      </c>
+      <c r="S9">
+        <v>8.027904865283157E-05</v>
+      </c>
+      <c r="T9">
+        <v>8.027904865283157E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.542699666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.628099000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="J10">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>248.91953</v>
+      </c>
+      <c r="N10">
+        <v>746.75859</v>
+      </c>
+      <c r="O10">
+        <v>0.2379452201904173</v>
+      </c>
+      <c r="P10">
+        <v>0.2379452201904174</v>
+      </c>
+      <c r="Q10">
+        <v>384.0080759578234</v>
+      </c>
+      <c r="R10">
+        <v>3456.072683620411</v>
+      </c>
+      <c r="S10">
+        <v>0.08657217831478377</v>
+      </c>
+      <c r="T10">
+        <v>0.0865721783147838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.542699666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.628099000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="J11">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>276.4319353333333</v>
+      </c>
+      <c r="N11">
+        <v>829.295806</v>
+      </c>
+      <c r="O11">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="P11">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="Q11">
+        <v>426.451454494755</v>
+      </c>
+      <c r="R11">
+        <v>3838.063090452794</v>
+      </c>
+      <c r="S11">
+        <v>0.09614076805294509</v>
+      </c>
+      <c r="T11">
+        <v>0.09614076805294512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.542699666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.628099000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="J12">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>470.9135336666666</v>
+      </c>
+      <c r="N12">
+        <v>1412.740601</v>
+      </c>
+      <c r="O12">
+        <v>0.4501520007649158</v>
+      </c>
+      <c r="P12">
+        <v>0.4501520007649159</v>
+      </c>
+      <c r="Q12">
+        <v>726.4781514163888</v>
+      </c>
+      <c r="R12">
+        <v>6538.3033627475</v>
+      </c>
+      <c r="S12">
+        <v>0.1637798786115159</v>
+      </c>
+      <c r="T12">
+        <v>0.1637798786115159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.542699666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.628099000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="J13">
+        <v>0.3638323906885114</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.32301466666667</v>
+      </c>
+      <c r="N13">
+        <v>102.969044</v>
+      </c>
+      <c r="O13">
+        <v>0.03280978910115619</v>
+      </c>
+      <c r="P13">
+        <v>0.0328097891011562</v>
+      </c>
+      <c r="Q13">
+        <v>52.95010328526178</v>
+      </c>
+      <c r="R13">
+        <v>476.550929567356</v>
+      </c>
+      <c r="S13">
+        <v>0.01193726400665952</v>
+      </c>
+      <c r="T13">
+        <v>0.01193726400665952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.897312</v>
+      </c>
+      <c r="H14">
+        <v>5.691936</v>
+      </c>
+      <c r="I14">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="J14">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.30232233333333</v>
+      </c>
+      <c r="N14">
+        <v>45.90696699999999</v>
+      </c>
+      <c r="O14">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="P14">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="Q14">
+        <v>29.03327979090133</v>
+      </c>
+      <c r="R14">
+        <v>261.299518118112</v>
+      </c>
+      <c r="S14">
+        <v>0.006545368268236576</v>
+      </c>
+      <c r="T14">
+        <v>0.006545368268236578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.78975708816259</v>
-      </c>
-      <c r="H7">
-        <v>1.78975708816259</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>26.5506525706167</v>
-      </c>
-      <c r="N7">
-        <v>26.5506525706167</v>
-      </c>
-      <c r="O7">
-        <v>0.02655808671566317</v>
-      </c>
-      <c r="P7">
-        <v>0.02655808671566317</v>
-      </c>
-      <c r="Q7">
-        <v>47.51921863360352</v>
-      </c>
-      <c r="R7">
-        <v>47.51921863360352</v>
-      </c>
-      <c r="S7">
-        <v>0.02655808671566317</v>
-      </c>
-      <c r="T7">
-        <v>0.02655808671566317</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.897312</v>
+      </c>
+      <c r="H15">
+        <v>5.691936</v>
+      </c>
+      <c r="I15">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="J15">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.230825</v>
+      </c>
+      <c r="N15">
+        <v>0.6924750000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="P15">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="Q15">
+        <v>0.4379470424000001</v>
+      </c>
+      <c r="R15">
+        <v>3.941523381600001</v>
+      </c>
+      <c r="S15">
+        <v>9.873237523069481E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.873237523069483E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.897312</v>
+      </c>
+      <c r="H16">
+        <v>5.691936</v>
+      </c>
+      <c r="I16">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="J16">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>248.91953</v>
+      </c>
+      <c r="N16">
+        <v>746.75859</v>
+      </c>
+      <c r="O16">
+        <v>0.2379452201904173</v>
+      </c>
+      <c r="P16">
+        <v>0.2379452201904174</v>
+      </c>
+      <c r="Q16">
+        <v>472.27801130336</v>
+      </c>
+      <c r="R16">
+        <v>4250.502101730241</v>
+      </c>
+      <c r="S16">
+        <v>0.106472073814397</v>
+      </c>
+      <c r="T16">
+        <v>0.1064720738143971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.897312</v>
+      </c>
+      <c r="H17">
+        <v>5.691936</v>
+      </c>
+      <c r="I17">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="J17">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>276.4319353333333</v>
+      </c>
+      <c r="N17">
+        <v>829.295806</v>
+      </c>
+      <c r="O17">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="P17">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="Q17">
+        <v>524.4776280911574</v>
+      </c>
+      <c r="R17">
+        <v>4720.298652820416</v>
+      </c>
+      <c r="S17">
+        <v>0.118240145413529</v>
+      </c>
+      <c r="T17">
+        <v>0.118240145413529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.897312</v>
+      </c>
+      <c r="H18">
+        <v>5.691936</v>
+      </c>
+      <c r="I18">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="J18">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>470.9135336666666</v>
+      </c>
+      <c r="N18">
+        <v>1412.740601</v>
+      </c>
+      <c r="O18">
+        <v>0.4501520007649158</v>
+      </c>
+      <c r="P18">
+        <v>0.4501520007649159</v>
+      </c>
+      <c r="Q18">
+        <v>893.4698983881707</v>
+      </c>
+      <c r="R18">
+        <v>8041.229085493536</v>
+      </c>
+      <c r="S18">
+        <v>0.2014271058472425</v>
+      </c>
+      <c r="T18">
+        <v>0.2014271058472426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.897312</v>
+      </c>
+      <c r="H19">
+        <v>5.691936</v>
+      </c>
+      <c r="I19">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="J19">
+        <v>0.4474646463971498</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>34.32301466666667</v>
+      </c>
+      <c r="N19">
+        <v>102.969044</v>
+      </c>
+      <c r="O19">
+        <v>0.03280978910115619</v>
+      </c>
+      <c r="P19">
+        <v>0.0328097891011562</v>
+      </c>
+      <c r="Q19">
+        <v>65.12146760324266</v>
+      </c>
+      <c r="R19">
+        <v>586.093208429184</v>
+      </c>
+      <c r="S19">
+        <v>0.01468122067851392</v>
+      </c>
+      <c r="T19">
+        <v>0.01468122067851392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.490957</v>
+      </c>
+      <c r="H20">
+        <v>1.472871</v>
+      </c>
+      <c r="I20">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="J20">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>15.30232233333333</v>
+      </c>
+      <c r="N20">
+        <v>45.90696699999999</v>
+      </c>
+      <c r="O20">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="P20">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="Q20">
+        <v>7.512782265806333</v>
+      </c>
+      <c r="R20">
+        <v>67.615040392257</v>
+      </c>
+      <c r="S20">
+        <v>0.001693708978211609</v>
+      </c>
+      <c r="T20">
+        <v>0.00169370897821161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.490957</v>
+      </c>
+      <c r="H21">
+        <v>1.472871</v>
+      </c>
+      <c r="I21">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="J21">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.230825</v>
+      </c>
+      <c r="N21">
+        <v>0.6924750000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="P21">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="Q21">
+        <v>0.113325149525</v>
+      </c>
+      <c r="R21">
+        <v>1.019926345725</v>
+      </c>
+      <c r="S21">
+        <v>2.554843417747647E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.554843417747647E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.490957</v>
+      </c>
+      <c r="H22">
+        <v>1.472871</v>
+      </c>
+      <c r="I22">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="J22">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>248.91953</v>
+      </c>
+      <c r="N22">
+        <v>746.75859</v>
+      </c>
+      <c r="O22">
+        <v>0.2379452201904173</v>
+      </c>
+      <c r="P22">
+        <v>0.2379452201904174</v>
+      </c>
+      <c r="Q22">
+        <v>122.20878569021</v>
+      </c>
+      <c r="R22">
+        <v>1099.87907121189</v>
+      </c>
+      <c r="S22">
+        <v>0.02755119344825465</v>
+      </c>
+      <c r="T22">
+        <v>0.02755119344825465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.490957</v>
+      </c>
+      <c r="H23">
+        <v>1.472871</v>
+      </c>
+      <c r="I23">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="J23">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>276.4319353333333</v>
+      </c>
+      <c r="N23">
+        <v>829.295806</v>
+      </c>
+      <c r="O23">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="P23">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="Q23">
+        <v>135.7161936754474</v>
+      </c>
+      <c r="R23">
+        <v>1221.445743079026</v>
+      </c>
+      <c r="S23">
+        <v>0.03059635266724184</v>
+      </c>
+      <c r="T23">
+        <v>0.03059635266724184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.490957</v>
+      </c>
+      <c r="H24">
+        <v>1.472871</v>
+      </c>
+      <c r="I24">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="J24">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>470.9135336666666</v>
+      </c>
+      <c r="N24">
+        <v>1412.740601</v>
+      </c>
+      <c r="O24">
+        <v>0.4501520007649158</v>
+      </c>
+      <c r="P24">
+        <v>0.4501520007649159</v>
+      </c>
+      <c r="Q24">
+        <v>231.1982957483857</v>
+      </c>
+      <c r="R24">
+        <v>2080.784661735471</v>
+      </c>
+      <c r="S24">
+        <v>0.052122185283941</v>
+      </c>
+      <c r="T24">
+        <v>0.052122185283941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.490957</v>
+      </c>
+      <c r="H25">
+        <v>1.472871</v>
+      </c>
+      <c r="I25">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="J25">
+        <v>0.1157879676095473</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>34.32301466666667</v>
+      </c>
+      <c r="N25">
+        <v>102.969044</v>
+      </c>
+      <c r="O25">
+        <v>0.03280978910115619</v>
+      </c>
+      <c r="P25">
+        <v>0.0328097891011562</v>
+      </c>
+      <c r="Q25">
+        <v>16.85112431170267</v>
+      </c>
+      <c r="R25">
+        <v>151.660118805324</v>
+      </c>
+      <c r="S25">
+        <v>0.003798978797720752</v>
+      </c>
+      <c r="T25">
+        <v>0.003798978797720753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.046087</v>
+      </c>
+      <c r="H26">
+        <v>0.138261</v>
+      </c>
+      <c r="I26">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="J26">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.30232233333333</v>
+      </c>
+      <c r="N26">
+        <v>45.90696699999999</v>
+      </c>
+      <c r="O26">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="P26">
+        <v>0.01462767689232637</v>
+      </c>
+      <c r="Q26">
+        <v>0.7052381293763331</v>
+      </c>
+      <c r="R26">
+        <v>6.347143164386999</v>
+      </c>
+      <c r="S26">
+        <v>0.0001589914507356824</v>
+      </c>
+      <c r="T26">
+        <v>0.0001589914507356825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.046087</v>
+      </c>
+      <c r="H27">
+        <v>0.138261</v>
+      </c>
+      <c r="I27">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="J27">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.230825</v>
+      </c>
+      <c r="N27">
+        <v>0.6924750000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="P27">
+        <v>0.0002206484378724847</v>
+      </c>
+      <c r="Q27">
+        <v>0.010638031775</v>
+      </c>
+      <c r="R27">
+        <v>0.09574228597500001</v>
+      </c>
+      <c r="S27">
+        <v>2.39827660250767E-06</v>
+      </c>
+      <c r="T27">
+        <v>2.39827660250767E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.046087</v>
+      </c>
+      <c r="H28">
+        <v>0.138261</v>
+      </c>
+      <c r="I28">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="J28">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>248.91953</v>
+      </c>
+      <c r="N28">
+        <v>746.75859</v>
+      </c>
+      <c r="O28">
+        <v>0.2379452201904173</v>
+      </c>
+      <c r="P28">
+        <v>0.2379452201904174</v>
+      </c>
+      <c r="Q28">
+        <v>11.47195437911</v>
+      </c>
+      <c r="R28">
+        <v>103.24758941199</v>
+      </c>
+      <c r="S28">
+        <v>0.002586279149599073</v>
+      </c>
+      <c r="T28">
+        <v>0.002586279149599073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.046087</v>
+      </c>
+      <c r="H29">
+        <v>0.138261</v>
+      </c>
+      <c r="I29">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="J29">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>276.4319353333333</v>
+      </c>
+      <c r="N29">
+        <v>829.295806</v>
+      </c>
+      <c r="O29">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="P29">
+        <v>0.2642446646133118</v>
+      </c>
+      <c r="Q29">
+        <v>12.73991860370733</v>
+      </c>
+      <c r="R29">
+        <v>114.659267433366</v>
+      </c>
+      <c r="S29">
+        <v>0.002872133619390648</v>
+      </c>
+      <c r="T29">
+        <v>0.002872133619390649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.046087</v>
+      </c>
+      <c r="H30">
+        <v>0.138261</v>
+      </c>
+      <c r="I30">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="J30">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>470.9135336666666</v>
+      </c>
+      <c r="N30">
+        <v>1412.740601</v>
+      </c>
+      <c r="O30">
+        <v>0.4501520007649158</v>
+      </c>
+      <c r="P30">
+        <v>0.4501520007649159</v>
+      </c>
+      <c r="Q30">
+        <v>21.70299202609566</v>
+      </c>
+      <c r="R30">
+        <v>195.326928234861</v>
+      </c>
+      <c r="S30">
+        <v>0.004892801514554204</v>
+      </c>
+      <c r="T30">
+        <v>0.004892801514554205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.046087</v>
+      </c>
+      <c r="H31">
+        <v>0.138261</v>
+      </c>
+      <c r="I31">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="J31">
+        <v>0.01086922085482274</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>34.32301466666667</v>
+      </c>
+      <c r="N31">
+        <v>102.969044</v>
+      </c>
+      <c r="O31">
+        <v>0.03280978910115619</v>
+      </c>
+      <c r="P31">
+        <v>0.0328097891011562</v>
+      </c>
+      <c r="Q31">
+        <v>1.581844776942666</v>
+      </c>
+      <c r="R31">
+        <v>14.236602992484</v>
+      </c>
+      <c r="S31">
+        <v>0.0003566168439406227</v>
+      </c>
+      <c r="T31">
+        <v>0.0003566168439406228</v>
       </c>
     </row>
   </sheetData>
